--- a/output/5Y_P24_KFSDIV.xlsx
+++ b/output/5Y_P24_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-24</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-21</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-20</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-19</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-11</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9136</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.4338</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9657</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3568</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2487</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3991</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.5985</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.6955</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3398</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.8469</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.129</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.716</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.4613</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.6545</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2345</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.1636</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.8145</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2352</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.8241</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2543</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.5675</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967000000000001</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0064</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0129</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-24</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-21</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-20</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-19</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-11</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -5462,10 +5465,10 @@
         <v>246240.9387</v>
       </c>
       <c r="K22" s="1">
-        <v>174357.5328</v>
+        <v>174382.9378</v>
       </c>
       <c r="L22" s="1">
-        <v>13.3387</v>
+        <v>13.3406</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -5515,10 +5518,10 @@
         <v>246374.3247</v>
       </c>
       <c r="K23" s="1">
-        <v>183969.8005</v>
+        <v>183995.2055</v>
       </c>
       <c r="L23" s="1">
-        <v>13.4324</v>
+        <v>13.4343</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -5568,10 +5571,10 @@
         <v>281259.3552</v>
       </c>
       <c r="K24" s="1">
-        <v>203877.5148</v>
+        <v>203902.9198</v>
       </c>
       <c r="L24" s="1">
-        <v>13.5443</v>
+        <v>13.546</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -5621,10 +5624,10 @@
         <v>301801.7039</v>
       </c>
       <c r="K25" s="1">
-        <v>201228.7552</v>
+        <v>201264.7436</v>
       </c>
       <c r="L25" s="1">
-        <v>13.5217</v>
+        <v>13.5241</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -5674,10 +5677,10 @@
         <v>315219.7966</v>
       </c>
       <c r="K26" s="1">
-        <v>200684.2321</v>
+        <v>200722.3948</v>
       </c>
       <c r="L26" s="1">
-        <v>13.5156</v>
+        <v>13.5182</v>
       </c>
       <c r="M26" s="1">
         <v>0.75</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -5727,10 +5730,10 @@
         <v>345573.7629</v>
       </c>
       <c r="K27" s="1">
-        <v>207292.5175</v>
+        <v>207330.6802</v>
       </c>
       <c r="L27" s="1">
-        <v>13.5931</v>
+        <v>13.5956</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -5780,10 +5783,10 @@
         <v>352266.0454</v>
       </c>
       <c r="K28" s="1">
-        <v>206933.3817</v>
+        <v>206972.9796</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5882</v>
+        <v>13.5908</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -5833,10 +5836,10 @@
         <v>368101.6995</v>
       </c>
       <c r="K29" s="1">
-        <v>220294.4704</v>
+        <v>220334.0682</v>
       </c>
       <c r="L29" s="1">
-        <v>13.7526</v>
+        <v>13.755</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -5886,10 +5889,10 @@
         <v>360740.1697</v>
       </c>
       <c r="K30" s="1">
-        <v>238182.9749</v>
+        <v>238222.5727</v>
       </c>
       <c r="L30" s="1">
-        <v>13.9232</v>
+        <v>13.9255</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -5939,10 +5942,10 @@
         <v>356477.1306</v>
       </c>
       <c r="K31" s="1">
-        <v>265582.4533</v>
+        <v>265622.0511</v>
       </c>
       <c r="L31" s="1">
-        <v>14.0639</v>
+        <v>14.066</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -5992,10 +5995,10 @@
         <v>332959.5026</v>
       </c>
       <c r="K32" s="1">
-        <v>289832.922</v>
+        <v>289872.5198</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1124</v>
+        <v>14.1143</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -6045,10 +6048,10 @@
         <v>371782.89</v>
       </c>
       <c r="K33" s="1">
-        <v>333427.9377</v>
+        <v>333467.5355</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9611</v>
+        <v>13.9627</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -6098,10 +6101,10 @@
         <v>395352.5234</v>
       </c>
       <c r="K34" s="1">
-        <v>323633.0138</v>
+        <v>323711.7555</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9641</v>
+        <v>13.9675</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -6151,10 +6154,10 @@
         <v>378322.5501</v>
       </c>
       <c r="K35" s="1">
-        <v>320049.0699</v>
+        <v>320142.1221</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9588</v>
+        <v>13.9629</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -6204,10 +6207,10 @@
         <v>374384.8497</v>
       </c>
       <c r="K36" s="1">
-        <v>357227.5678</v>
+        <v>357320.6199</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8834</v>
+        <v>13.8871</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -6257,10 +6260,10 @@
         <v>372281.0278</v>
       </c>
       <c r="K37" s="1">
-        <v>389399.4878</v>
+        <v>389492.54</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7482</v>
+        <v>13.7515</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -6310,10 +6313,10 @@
         <v>389577.1959</v>
       </c>
       <c r="K38" s="1">
-        <v>411462.8924</v>
+        <v>411555.9446</v>
       </c>
       <c r="L38" s="1">
-        <v>13.6405</v>
+        <v>13.6435</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9136</v>
@@ -6363,10 +6366,10 @@
         <v>431953.0882</v>
       </c>
       <c r="K39" s="1">
-        <v>414089.0264</v>
+        <v>414182.0786</v>
       </c>
       <c r="L39" s="1">
-        <v>13.6305</v>
+        <v>13.6335</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.4338</v>
@@ -6416,10 +6419,10 @@
         <v>457258.8813</v>
       </c>
       <c r="K40" s="1">
-        <v>402515.7555</v>
+        <v>402655.0489</v>
       </c>
       <c r="L40" s="1">
-        <v>13.6514</v>
+        <v>13.6562</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9657</v>
@@ -6469,10 +6472,10 @@
         <v>453671.1765</v>
       </c>
       <c r="K41" s="1">
-        <v>397188.671</v>
+        <v>397349.2558</v>
       </c>
       <c r="L41" s="1">
-        <v>13.654</v>
+        <v>13.6595</v>
       </c>
       <c r="M41" s="1">
         <v>0.3</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3568</v>
@@ -6522,10 +6525,10 @@
         <v>483495.8351</v>
       </c>
       <c r="K42" s="1">
-        <v>420870.9834</v>
+        <v>421031.5681</v>
       </c>
       <c r="L42" s="1">
-        <v>13.615</v>
+        <v>13.6202</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2487</v>
@@ -6575,10 +6578,10 @@
         <v>490177.1053</v>
       </c>
       <c r="K43" s="1">
-        <v>418797.5937</v>
+        <v>418966.4666</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6161</v>
+        <v>13.6216</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3991</v>
@@ -6628,10 +6631,10 @@
         <v>504891.6087</v>
       </c>
       <c r="K44" s="1">
-        <v>432169.7104</v>
+        <v>432338.5834</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6053</v>
+        <v>13.6106</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.5985</v>
@@ -6681,10 +6684,10 @@
         <v>532704.9991</v>
       </c>
       <c r="K45" s="1">
-        <v>437422.7918</v>
+        <v>437591.6648</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6031</v>
+        <v>13.6084</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.6955</v>
@@ -6734,10 +6737,10 @@
         <v>545828.9524</v>
       </c>
       <c r="K46" s="1">
-        <v>441038.1773</v>
+        <v>441207.0503</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6033</v>
+        <v>13.6085</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3398</v>
@@ -6787,10 +6790,10 @@
         <v>544113.6433</v>
       </c>
       <c r="K47" s="1">
-        <v>447927.3002</v>
+        <v>448096.1732</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6051</v>
+        <v>13.6103</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.8469</v>
@@ -6840,10 +6843,10 @@
         <v>545919.6213</v>
       </c>
       <c r="K48" s="1">
-        <v>469702.0904</v>
+        <v>469870.9634</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5939</v>
+        <v>13.5988</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.129</v>
@@ -6893,10 +6896,10 @@
         <v>566130.6303</v>
       </c>
       <c r="K49" s="1">
-        <v>496806.6603</v>
+        <v>496975.5333</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5525</v>
+        <v>13.5571</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.716</v>
@@ -6946,10 +6949,10 @@
         <v>561033.8945000001</v>
       </c>
       <c r="K50" s="1">
-        <v>496486.1418</v>
+        <v>496656.2964</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5527</v>
+        <v>13.5574</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.4613</v>
@@ -6999,10 +7002,10 @@
         <v>571009.3454</v>
       </c>
       <c r="K51" s="1">
-        <v>521683.5367</v>
+        <v>521853.6912</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5112</v>
+        <v>13.5156</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.6545</v>
@@ -7052,10 +7055,10 @@
         <v>588681.2788</v>
       </c>
       <c r="K52" s="1">
-        <v>541578.0238</v>
+        <v>541748.1783</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4706</v>
+        <v>13.4748</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2345</v>
@@ -7105,10 +7108,10 @@
         <v>581743.8638000001</v>
       </c>
       <c r="K53" s="1">
-        <v>543835.6113</v>
+        <v>544005.7659</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4671</v>
+        <v>13.4713</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.1636</v>
@@ -7158,10 +7161,10 @@
         <v>599528.1262000001</v>
       </c>
       <c r="K54" s="1">
-        <v>570872.0659</v>
+        <v>571042.2205000001</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4045</v>
+        <v>13.4085</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.8145</v>
@@ -7211,10 +7214,10 @@
         <v>594264.838</v>
       </c>
       <c r="K55" s="1">
-        <v>583935.2375</v>
+        <v>584105.392</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3747</v>
+        <v>13.3785</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2352</v>
@@ -7264,10 +7267,10 @@
         <v>577683.2806000001</v>
       </c>
       <c r="K56" s="1">
-        <v>609247.4648</v>
+        <v>609417.6193</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3029</v>
+        <v>13.3066</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.8241</v>
@@ -7317,10 +7320,10 @@
         <v>579776.5024</v>
       </c>
       <c r="K57" s="1">
-        <v>645874.2932</v>
+        <v>646044.4477</v>
       </c>
       <c r="L57" s="1">
-        <v>13.1673</v>
+        <v>13.1707</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2543</v>
@@ -7370,10 +7373,10 @@
         <v>611915.7065</v>
       </c>
       <c r="K58" s="1">
-        <v>676121.167</v>
+        <v>676291.3215</v>
       </c>
       <c r="L58" s="1">
-        <v>13.0424</v>
+        <v>13.0457</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.5675</v>
@@ -7423,10 +7426,10 @@
         <v>587132.5017</v>
       </c>
       <c r="K59" s="1">
-        <v>663811.699</v>
+        <v>664031.0831</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0804</v>
+        <v>13.0847</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967000000000001</v>
@@ -7476,10 +7479,10 @@
         <v>577696.505</v>
       </c>
       <c r="K60" s="1">
-        <v>708774.5224</v>
+        <v>708993.9065</v>
       </c>
       <c r="L60" s="1">
-        <v>12.888</v>
+        <v>12.892</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0064</v>
@@ -7529,10 +7532,10 @@
         <v>589855.3688000001</v>
       </c>
       <c r="K61" s="1">
-        <v>749429.5725</v>
+        <v>749648.9566</v>
       </c>
       <c r="L61" s="1">
-        <v>12.688</v>
+        <v>12.6917</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0129</v>
@@ -7582,10 +7585,10 @@
         <v>600205.7857</v>
       </c>
       <c r="K62" s="1">
-        <v>759429.5725</v>
+        <v>759648.9566</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6438</v>
+        <v>12.6475</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-24</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-21</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-20</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-19</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-11</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -8774,10 +8777,10 @@
         <v>247669.5183</v>
       </c>
       <c r="K22" s="1">
-        <v>183287.4108</v>
+        <v>183311.8613</v>
       </c>
       <c r="L22" s="1">
-        <v>13.3674</v>
+        <v>13.3692</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -8827,10 +8830,10 @@
         <v>247291.4524</v>
       </c>
       <c r="K23" s="1">
-        <v>193931.8963</v>
+        <v>193956.3467</v>
       </c>
       <c r="L23" s="1">
-        <v>13.4648</v>
+        <v>13.4665</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -8880,10 +8883,10 @@
         <v>283492.4586</v>
       </c>
       <c r="K24" s="1">
-        <v>215457.6007</v>
+        <v>215482.0511</v>
       </c>
       <c r="L24" s="1">
-        <v>13.5765</v>
+        <v>13.5781</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -8933,10 +8936,10 @@
         <v>304635.4477</v>
       </c>
       <c r="K25" s="1">
-        <v>213284.3065</v>
+        <v>213317.4406</v>
       </c>
       <c r="L25" s="1">
-        <v>13.5593</v>
+        <v>13.5614</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -8986,10 +8989,10 @@
         <v>318257.1895</v>
       </c>
       <c r="K26" s="1">
-        <v>213357.1283</v>
+        <v>213390.2624</v>
       </c>
       <c r="L26" s="1">
-        <v>13.56</v>
+        <v>13.5621</v>
       </c>
       <c r="M26" s="1">
         <v>0.75</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -9039,10 +9042,10 @@
         <v>349850.8298</v>
       </c>
       <c r="K27" s="1">
-        <v>221037.3504</v>
+        <v>221070.4845</v>
       </c>
       <c r="L27" s="1">
-        <v>13.6435</v>
+        <v>13.6456</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -9092,10 +9095,10 @@
         <v>356326.5664</v>
       </c>
       <c r="K28" s="1">
-        <v>221362.9529</v>
+        <v>221396.087</v>
       </c>
       <c r="L28" s="1">
-        <v>13.6476</v>
+        <v>13.6497</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -9145,10 +9148,10 @@
         <v>372517.7772</v>
       </c>
       <c r="K29" s="1">
-        <v>236330.298</v>
+        <v>236363.4321</v>
       </c>
       <c r="L29" s="1">
-        <v>13.817</v>
+        <v>13.8189</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -9198,10 +9201,10 @@
         <v>363929.0657</v>
       </c>
       <c r="K30" s="1">
-        <v>256198.1596</v>
+        <v>256231.2937</v>
       </c>
       <c r="L30" s="1">
-        <v>13.9897</v>
+        <v>13.9915</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -9251,10 +9254,10 @@
         <v>358618.3044</v>
       </c>
       <c r="K31" s="1">
-        <v>286326.5348</v>
+        <v>286359.6688</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1275</v>
+        <v>14.1291</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -9304,10 +9307,10 @@
         <v>332550.2799</v>
       </c>
       <c r="K32" s="1">
-        <v>313180.4454</v>
+        <v>313213.5795</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1721</v>
+        <v>14.1736</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -9357,10 +9360,10 @@
         <v>373615.2565</v>
       </c>
       <c r="K33" s="1">
-        <v>360946.1294</v>
+        <v>360979.2635</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0099</v>
+        <v>14.0112</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -9410,10 +9413,10 @@
         <v>398291.0796</v>
       </c>
       <c r="K34" s="1">
-        <v>351267.8688</v>
+        <v>351339.6805</v>
       </c>
       <c r="L34" s="1">
-        <v>14.014</v>
+        <v>14.0169</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -9463,10 +9466,10 @@
         <v>378982.6705</v>
       </c>
       <c r="K35" s="1">
-        <v>348310.669</v>
+        <v>348394.2886</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0104</v>
+        <v>14.0138</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -9516,10 +9519,10 @@
         <v>373804.9832</v>
       </c>
       <c r="K36" s="1">
-        <v>389573.0005</v>
+        <v>389656.6201</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9278</v>
+        <v>13.9307</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -9569,10 +9572,10 @@
         <v>370609.8523</v>
       </c>
       <c r="K37" s="1">
-        <v>425527.5083</v>
+        <v>425611.1279</v>
       </c>
       <c r="L37" s="1">
-        <v>13.785</v>
+        <v>13.7877</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -9622,10 +9625,10 @@
         <v>388367.1711</v>
       </c>
       <c r="K38" s="1">
-        <v>437734.9716</v>
+        <v>437818.5912</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7274</v>
+        <v>13.73</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9136</v>
@@ -9675,10 +9678,10 @@
         <v>432981.9058</v>
       </c>
       <c r="K39" s="1">
-        <v>447734.9716</v>
+        <v>447818.5912</v>
       </c>
       <c r="L39" s="1">
-        <v>13.6899</v>
+        <v>13.6924</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.4338</v>
@@ -9728,10 +9731,10 @@
         <v>459792.2783</v>
       </c>
       <c r="K40" s="1">
-        <v>443570.5074</v>
+        <v>443670.7662</v>
       </c>
       <c r="L40" s="1">
-        <v>13.6973</v>
+        <v>13.7004</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9657</v>
@@ -9781,10 +9784,10 @@
         <v>454830.4291</v>
       </c>
       <c r="K41" s="1">
-        <v>438827.9523</v>
+        <v>438947.1662</v>
       </c>
       <c r="L41" s="1">
-        <v>13.6999</v>
+        <v>13.7037</v>
       </c>
       <c r="M41" s="1">
         <v>0.3</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3568</v>
@@ -9834,10 +9837,10 @@
         <v>486689.69</v>
       </c>
       <c r="K42" s="1">
-        <v>466045.739</v>
+        <v>466164.9529</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6565</v>
+        <v>13.66</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2487</v>
@@ -9887,10 +9890,10 @@
         <v>493016.4517</v>
       </c>
       <c r="K43" s="1">
-        <v>464929.6957</v>
+        <v>465053.3709</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6571</v>
+        <v>13.6608</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3991</v>
@@ -9940,10 +9943,10 @@
         <v>508243.379</v>
       </c>
       <c r="K44" s="1">
-        <v>480935.819</v>
+        <v>481059.4942</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6441</v>
+        <v>13.6476</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.5985</v>
@@ -9993,10 +9996,10 @@
         <v>538023.9459</v>
       </c>
       <c r="K45" s="1">
-        <v>488003.532</v>
+        <v>488127.2072</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6409</v>
+        <v>13.6443</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.6955</v>
@@ -10046,10 +10049,10 @@
         <v>551503.4514</v>
       </c>
       <c r="K46" s="1">
-        <v>493297.396</v>
+        <v>493421.0712</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6407</v>
+        <v>13.6441</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3398</v>
@@ -10099,10 +10102,10 @@
         <v>548396.917</v>
       </c>
       <c r="K47" s="1">
-        <v>502286.5902</v>
+        <v>502410.2655</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6422</v>
+        <v>13.6455</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.8469</v>
@@ -10152,10 +10155,10 @@
         <v>549178.8195</v>
       </c>
       <c r="K48" s="1">
-        <v>527976.0672</v>
+        <v>528099.7424</v>
       </c>
       <c r="L48" s="1">
-        <v>13.6285</v>
+        <v>13.6317</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.129</v>
@@ -10205,10 +10208,10 @@
         <v>570652.0599</v>
       </c>
       <c r="K49" s="1">
-        <v>559738.1966</v>
+        <v>559861.8718</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5832</v>
+        <v>13.5862</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.716</v>
@@ -10258,10 +10261,10 @@
         <v>563633.2809</v>
       </c>
       <c r="K50" s="1">
-        <v>560783.9955</v>
+        <v>560907.6707</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5824</v>
+        <v>13.5854</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.4613</v>
@@ -10311,10 +10314,10 @@
         <v>573571.1255</v>
       </c>
       <c r="K51" s="1">
-        <v>590622.6848</v>
+        <v>590746.36</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5373</v>
+        <v>13.5401</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.6545</v>
@@ -10364,10 +10367,10 @@
         <v>592257.0241</v>
       </c>
       <c r="K52" s="1">
-        <v>614577.4256</v>
+        <v>614701.1008</v>
       </c>
       <c r="L52" s="1">
-        <v>13.493</v>
+        <v>13.4957</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2345</v>
@@ -10417,10 +10420,10 @@
         <v>583012.6403</v>
       </c>
       <c r="K53" s="1">
-        <v>618644.3141</v>
+        <v>618767.9894</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4873</v>
+        <v>13.49</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.1636</v>
@@ -10470,10 +10473,10 @@
         <v>601839.3238</v>
       </c>
       <c r="K54" s="1">
-        <v>650897.7753</v>
+        <v>651021.4505</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4207</v>
+        <v>13.4232</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.8145</v>
@@ -10523,10 +10526,10 @@
         <v>594405.9149</v>
       </c>
       <c r="K55" s="1">
-        <v>667353.3517999999</v>
+        <v>667477.027</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3873</v>
+        <v>13.3898</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2352</v>
@@ -10576,10 +10579,10 @@
         <v>574703.9716</v>
       </c>
       <c r="K56" s="1">
-        <v>683985.7145</v>
+        <v>684109.3897000001</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3448</v>
+        <v>13.3472</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.8241</v>
@@ -10629,10 +10632,10 @@
         <v>577108.4979</v>
       </c>
       <c r="K57" s="1">
-        <v>693985.7145</v>
+        <v>694109.3897000001</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3093</v>
+        <v>13.3116</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2543</v>
@@ -10682,10 +10685,10 @@
         <v>610347.1268</v>
       </c>
       <c r="K58" s="1">
-        <v>717824.4931</v>
+        <v>717948.1683</v>
       </c>
       <c r="L58" s="1">
-        <v>13.2096</v>
+        <v>13.2119</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.5675</v>
@@ -10735,10 +10738,10 @@
         <v>582454.0281</v>
       </c>
       <c r="K59" s="1">
-        <v>727824.4931</v>
+        <v>727948.1683</v>
       </c>
       <c r="L59" s="1">
-        <v>13.1786</v>
+        <v>13.1808</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967000000000001</v>
@@ -10788,10 +10791,10 @@
         <v>573661.5984</v>
       </c>
       <c r="K60" s="1">
-        <v>737824.4931</v>
+        <v>737948.1683</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1351</v>
+        <v>13.1373</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0064</v>
@@ -10841,10 +10844,10 @@
         <v>585867.6677</v>
       </c>
       <c r="K61" s="1">
-        <v>762735.9877000001</v>
+        <v>762859.6629999999</v>
       </c>
       <c r="L61" s="1">
-        <v>13.0012</v>
+        <v>13.0033</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0129</v>
@@ -10894,10 +10897,10 @@
         <v>596215.4891</v>
       </c>
       <c r="K62" s="1">
-        <v>772735.9877000001</v>
+        <v>772859.6629999999</v>
       </c>
       <c r="L62" s="1">
-        <v>12.9515</v>
+        <v>12.9536</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-24</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-21</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-20</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-19</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-11</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -12086,10 +12089,10 @@
         <v>249114.1983</v>
       </c>
       <c r="K22" s="1">
-        <v>192834.6803</v>
+        <v>192857.98</v>
       </c>
       <c r="L22" s="1">
-        <v>13.3996</v>
+        <v>13.4012</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -12139,10 +12142,10 @@
         <v>248190.9595</v>
       </c>
       <c r="K23" s="1">
-        <v>204614.4894</v>
+        <v>204637.7891</v>
       </c>
       <c r="L23" s="1">
-        <v>13.5003</v>
+        <v>13.5018</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -12192,10 +12195,10 @@
         <v>285796.6422</v>
       </c>
       <c r="K24" s="1">
-        <v>227907.6081</v>
+        <v>227930.9079</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6115</v>
+        <v>13.6129</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -12245,10 +12248,10 @@
         <v>307584.0432</v>
       </c>
       <c r="K25" s="1">
-        <v>226290.2948</v>
+        <v>226320.0567</v>
       </c>
       <c r="L25" s="1">
-        <v>13.5996</v>
+        <v>13.6014</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -12298,10 +12301,10 @@
         <v>321422.4744</v>
       </c>
       <c r="K26" s="1">
-        <v>227077.668</v>
+        <v>227107.4299</v>
       </c>
       <c r="L26" s="1">
-        <v>13.6073</v>
+        <v>13.609</v>
       </c>
       <c r="M26" s="1">
         <v>0.75</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -12351,10 +12354,10 @@
         <v>354352.7604</v>
       </c>
       <c r="K27" s="1">
-        <v>235968.9303</v>
+        <v>235998.6922</v>
       </c>
       <c r="L27" s="1">
-        <v>13.6967</v>
+        <v>13.6984</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -12404,10 +12407,10 @@
         <v>360592.0069</v>
       </c>
       <c r="K28" s="1">
-        <v>237096.3716</v>
+        <v>237126.1335</v>
       </c>
       <c r="L28" s="1">
-        <v>13.7098</v>
+        <v>13.7115</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -12457,10 +12460,10 @@
         <v>377166.3568</v>
       </c>
       <c r="K29" s="1">
-        <v>253872.1941</v>
+        <v>253901.956</v>
       </c>
       <c r="L29" s="1">
-        <v>13.884</v>
+        <v>13.8856</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -12510,10 +12513,10 @@
         <v>367238.296</v>
       </c>
       <c r="K30" s="1">
-        <v>275965.8152</v>
+        <v>275995.5771</v>
       </c>
       <c r="L30" s="1">
-        <v>14.0586</v>
+        <v>14.0601</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -12563,10 +12566,10 @@
         <v>360780.1112</v>
       </c>
       <c r="K31" s="1">
-        <v>309151.0374</v>
+        <v>309180.7993</v>
       </c>
       <c r="L31" s="1">
-        <v>14.193</v>
+        <v>14.1943</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -12616,10 +12619,10 @@
         <v>331909.8647</v>
       </c>
       <c r="K32" s="1">
-        <v>338940.7081</v>
+        <v>338970.47</v>
       </c>
       <c r="L32" s="1">
-        <v>14.2333</v>
+        <v>14.2346</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -12669,10 +12672,10 @@
         <v>374275.6103</v>
       </c>
       <c r="K33" s="1">
-        <v>371752.8753</v>
+        <v>371782.6372</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1185</v>
+        <v>14.1196</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -12722,10 +12725,10 @@
         <v>400129.3442</v>
       </c>
       <c r="K34" s="1">
-        <v>383179.5476</v>
+        <v>383209.3095</v>
       </c>
       <c r="L34" s="1">
-        <v>14.1107</v>
+        <v>14.1118</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -12775,10 +12778,10 @@
         <v>378292.1241</v>
       </c>
       <c r="K35" s="1">
-        <v>381020.9365</v>
+        <v>381059.3176</v>
       </c>
       <c r="L35" s="1">
-        <v>14.1088</v>
+        <v>14.1102</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -12828,10 +12831,10 @@
         <v>372722.5453</v>
       </c>
       <c r="K36" s="1">
-        <v>412460.1954</v>
+        <v>412498.5765</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0409</v>
+        <v>14.0422</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -12881,10 +12884,10 @@
         <v>369551.5954</v>
       </c>
       <c r="K37" s="1">
-        <v>432182.3086</v>
+        <v>432220.6897</v>
       </c>
       <c r="L37" s="1">
-        <v>13.957</v>
+        <v>13.9583</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -12934,10 +12937,10 @@
         <v>387296.2126</v>
       </c>
       <c r="K38" s="1">
-        <v>442182.3086</v>
+        <v>442220.6897</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9052</v>
+        <v>13.9064</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9136</v>
@@ -12987,10 +12990,10 @@
         <v>431816.9817</v>
       </c>
       <c r="K39" s="1">
-        <v>452182.3086</v>
+        <v>452220.6897</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8631</v>
+        <v>13.8643</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.4338</v>
@@ -13040,10 +13043,10 @@
         <v>459523.5168</v>
       </c>
       <c r="K40" s="1">
-        <v>473630.2392</v>
+        <v>473668.6203</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8185</v>
+        <v>13.8196</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9657</v>
@@ -13093,10 +13096,10 @@
         <v>453126.6156</v>
       </c>
       <c r="K41" s="1">
-        <v>483630.2392</v>
+        <v>483668.6203</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8109</v>
+        <v>13.812</v>
       </c>
       <c r="M41" s="1">
         <v>0.3</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3568</v>
@@ -13146,10 +13149,10 @@
         <v>486509.5107</v>
       </c>
       <c r="K42" s="1">
-        <v>493630.2392</v>
+        <v>493668.6203</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7933</v>
+        <v>13.7943</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2487</v>
@@ -13199,10 +13202,10 @@
         <v>492413.3928</v>
       </c>
       <c r="K43" s="1">
-        <v>513085.1138</v>
+        <v>513123.4949</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7773</v>
+        <v>13.7783</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3991</v>
@@ -13252,10 +13255,10 @@
         <v>508076.4726</v>
       </c>
       <c r="K44" s="1">
-        <v>523085.1138</v>
+        <v>523123.4949</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7673</v>
+        <v>13.7683</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.5985</v>
@@ -13305,10 +13308,10 @@
         <v>539423.8058</v>
       </c>
       <c r="K45" s="1">
-        <v>533085.1138000001</v>
+        <v>533123.4949</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7608</v>
+        <v>13.7617</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.6955</v>
@@ -13358,10 +13361,10 @@
         <v>553247.436</v>
       </c>
       <c r="K46" s="1">
-        <v>556751.4568</v>
+        <v>556789.8379</v>
       </c>
       <c r="L46" s="1">
-        <v>13.755</v>
+        <v>13.7559</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3398</v>
@@ -13411,10 +13414,10 @@
         <v>548579.3329</v>
       </c>
       <c r="K47" s="1">
-        <v>566763.2043</v>
+        <v>566801.5854</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7544</v>
+        <v>13.7553</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.8469</v>
@@ -13464,10 +13467,10 @@
         <v>549027.7657</v>
       </c>
       <c r="K48" s="1">
-        <v>576763.2043</v>
+        <v>576801.5854</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7475</v>
+        <v>13.7484</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.129</v>
@@ -13517,10 +13520,10 @@
         <v>571215.4743</v>
       </c>
       <c r="K49" s="1">
-        <v>597888.8189</v>
+        <v>597927.2</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7145</v>
+        <v>13.7154</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.716</v>
@@ -13570,10 +13573,10 @@
         <v>562896.6304</v>
       </c>
       <c r="K50" s="1">
-        <v>607888.8189</v>
+        <v>607927.2</v>
       </c>
       <c r="L50" s="1">
-        <v>13.705</v>
+        <v>13.7058</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.4613</v>
@@ -13623,10 +13626,10 @@
         <v>573357.992</v>
       </c>
       <c r="K51" s="1">
-        <v>617888.8189</v>
+        <v>617927.2</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6882</v>
+        <v>13.6891</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.6545</v>
@@ -13676,10 +13679,10 @@
         <v>592312.5343000001</v>
       </c>
       <c r="K52" s="1">
-        <v>639864.7767</v>
+        <v>639903.1578</v>
       </c>
       <c r="L52" s="1">
-        <v>13.6431</v>
+        <v>13.6439</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2345</v>
@@ -13729,10 +13732,10 @@
         <v>582281.3664000001</v>
       </c>
       <c r="K53" s="1">
-        <v>649864.7767</v>
+        <v>649903.1578</v>
       </c>
       <c r="L53" s="1">
-        <v>13.6272</v>
+        <v>13.628</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.1636</v>
@@ -13782,10 +13785,10 @@
         <v>601688.1199</v>
       </c>
       <c r="K54" s="1">
-        <v>659864.7767</v>
+        <v>659903.1578</v>
       </c>
       <c r="L54" s="1">
-        <v>13.6042</v>
+        <v>13.605</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.8145</v>
@@ -13835,10 +13838,10 @@
         <v>594043.7826</v>
       </c>
       <c r="K55" s="1">
-        <v>682740.7775</v>
+        <v>682779.1586</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5514</v>
+        <v>13.5522</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2352</v>
@@ -13888,10 +13891,10 @@
         <v>574384.7977999999</v>
       </c>
       <c r="K56" s="1">
-        <v>692740.7775</v>
+        <v>692779.1586</v>
       </c>
       <c r="L56" s="1">
-        <v>13.5232</v>
+        <v>13.5239</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.8241</v>
@@ -13941,10 +13944,10 @@
         <v>576793.3179</v>
       </c>
       <c r="K57" s="1">
-        <v>702740.7775</v>
+        <v>702779.1586</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4845</v>
+        <v>13.4853</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2543</v>
@@ -13994,10 +13997,10 @@
         <v>610019.4502</v>
       </c>
       <c r="K58" s="1">
-        <v>726571.8704</v>
+        <v>726610.2515</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3778</v>
+        <v>13.3785</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.5675</v>
@@ -14047,10 +14050,10 @@
         <v>582146.3474</v>
       </c>
       <c r="K59" s="1">
-        <v>736571.8704</v>
+        <v>736610.2515</v>
       </c>
       <c r="L59" s="1">
-        <v>13.344</v>
+        <v>13.3447</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967000000000001</v>
@@ -14100,10 +14103,10 @@
         <v>573363.5247</v>
       </c>
       <c r="K60" s="1">
-        <v>746571.8704</v>
+        <v>746610.2515</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2977</v>
+        <v>13.2984</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0064</v>
@@ -14153,10 +14156,10 @@
         <v>585568.4479</v>
       </c>
       <c r="K61" s="1">
-        <v>771475.4881</v>
+        <v>771513.8692</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1569</v>
+        <v>13.1575</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0129</v>
@@ -14206,10 +14209,10 @@
         <v>595916.0745</v>
       </c>
       <c r="K62" s="1">
-        <v>781475.4881</v>
+        <v>781513.8692</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1045</v>
+        <v>13.1052</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-24</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-21</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-20</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-19</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-11</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -15398,10 +15401,10 @@
         <v>250046.1075</v>
       </c>
       <c r="K22" s="1">
-        <v>203512.4088</v>
+        <v>203519.6626</v>
       </c>
       <c r="L22" s="1">
-        <v>13.4659</v>
+        <v>13.4664</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -15451,10 +15454,10 @@
         <v>248541.6086</v>
       </c>
       <c r="K23" s="1">
-        <v>216540.317</v>
+        <v>216547.5708</v>
       </c>
       <c r="L23" s="1">
-        <v>13.5682</v>
+        <v>13.5687</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -15504,10 +15507,10 @@
         <v>287647.0455</v>
       </c>
       <c r="K24" s="1">
-        <v>241764.0787</v>
+        <v>241771.3325</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6757</v>
+        <v>13.6761</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -15557,10 +15560,10 @@
         <v>310126.0437</v>
       </c>
       <c r="K25" s="1">
-        <v>240793.1139</v>
+        <v>240804.2473</v>
       </c>
       <c r="L25" s="1">
-        <v>13.6692</v>
+        <v>13.6698</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -15610,10 +15613,10 @@
         <v>324197.6113</v>
       </c>
       <c r="K26" s="1">
-        <v>242404.3209</v>
+        <v>242415.4543</v>
       </c>
       <c r="L26" s="1">
-        <v>13.6835</v>
+        <v>13.6842</v>
       </c>
       <c r="M26" s="1">
         <v>0.75</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -15663,10 +15666,10 @@
         <v>358569.6658</v>
       </c>
       <c r="K27" s="1">
-        <v>252662.2942</v>
+        <v>252673.4276</v>
       </c>
       <c r="L27" s="1">
-        <v>13.7779</v>
+        <v>13.7785</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -15716,10 +15719,10 @@
         <v>364552.2202</v>
       </c>
       <c r="K28" s="1">
-        <v>254724.6374</v>
+        <v>254735.7708</v>
       </c>
       <c r="L28" s="1">
-        <v>13.7998</v>
+        <v>13.8004</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -15769,10 +15772,10 @@
         <v>381539.564</v>
       </c>
       <c r="K29" s="1">
-        <v>273536.0795</v>
+        <v>273547.2129</v>
       </c>
       <c r="L29" s="1">
-        <v>13.9772</v>
+        <v>13.9778</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -15822,10 +15825,10 @@
         <v>370148.8995</v>
       </c>
       <c r="K30" s="1">
-        <v>298132.6558</v>
+        <v>298143.7893</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1517</v>
+        <v>14.1522</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -15875,10 +15878,10 @@
         <v>362433.3137</v>
       </c>
       <c r="K31" s="1">
-        <v>334743.473</v>
+        <v>334754.6064</v>
       </c>
       <c r="L31" s="1">
-        <v>14.28</v>
+        <v>14.2805</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -15928,10 +15931,10 @@
         <v>330836.7631</v>
       </c>
       <c r="K32" s="1">
-        <v>364759.0965</v>
+        <v>364770.2299</v>
       </c>
       <c r="L32" s="1">
-        <v>14.311</v>
+        <v>14.3115</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -15981,10 +15984,10 @@
         <v>373984.7917</v>
       </c>
       <c r="K33" s="1">
-        <v>374759.0965</v>
+        <v>374770.2299</v>
       </c>
       <c r="L33" s="1">
-        <v>14.2736</v>
+        <v>14.2741</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -16034,10 +16037,10 @@
         <v>400178.2689</v>
       </c>
       <c r="K34" s="1">
-        <v>396228.6956</v>
+        <v>396239.829</v>
       </c>
       <c r="L34" s="1">
-        <v>14.2507</v>
+        <v>14.2512</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -16087,10 +16090,10 @@
         <v>376544.3141</v>
       </c>
       <c r="K35" s="1">
-        <v>406228.6956</v>
+        <v>406239.829</v>
       </c>
       <c r="L35" s="1">
-        <v>14.2556</v>
+        <v>14.256</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -16140,10 +16143,10 @@
         <v>371704.6211</v>
       </c>
       <c r="K36" s="1">
-        <v>416228.6956</v>
+        <v>416239.829</v>
       </c>
       <c r="L36" s="1">
-        <v>14.2301</v>
+        <v>14.2305</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -16193,10 +16196,10 @@
         <v>368566.428</v>
       </c>
       <c r="K37" s="1">
-        <v>436487.2833</v>
+        <v>436498.4168</v>
       </c>
       <c r="L37" s="1">
-        <v>14.1337</v>
+        <v>14.1341</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -16246,10 +16249,10 @@
         <v>386290.8373</v>
       </c>
       <c r="K38" s="1">
-        <v>446487.2833</v>
+        <v>446498.4168</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0771</v>
+        <v>14.0775</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.9136</v>
@@ -16299,10 +16302,10 @@
         <v>430723.3951</v>
       </c>
       <c r="K39" s="1">
-        <v>456487.2833</v>
+        <v>456498.4168</v>
       </c>
       <c r="L39" s="1">
-        <v>14.0306</v>
+        <v>14.031</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.4338</v>
@@ -16352,10 +16355,10 @@
         <v>458386.0058</v>
       </c>
       <c r="K40" s="1">
-        <v>477905.4965</v>
+        <v>477916.6299</v>
       </c>
       <c r="L40" s="1">
-        <v>13.9778</v>
+        <v>13.9781</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9657</v>
@@ -16405,10 +16408,10 @@
         <v>452028.7357</v>
       </c>
       <c r="K41" s="1">
-        <v>487905.4965</v>
+        <v>487916.6299</v>
       </c>
       <c r="L41" s="1">
-        <v>13.9668</v>
+        <v>13.9671</v>
       </c>
       <c r="M41" s="1">
         <v>0.3</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.3568</v>
@@ -16458,10 +16461,10 @@
         <v>485355.6075</v>
       </c>
       <c r="K42" s="1">
-        <v>497905.4965</v>
+        <v>497916.6299</v>
       </c>
       <c r="L42" s="1">
-        <v>13.9458</v>
+        <v>13.9461</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2487</v>
@@ -16511,10 +16514,10 @@
         <v>491268.9207</v>
       </c>
       <c r="K43" s="1">
-        <v>517337.4629</v>
+        <v>517348.5963</v>
       </c>
       <c r="L43" s="1">
-        <v>13.9238</v>
+        <v>13.9241</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3991</v>
@@ -16564,10 +16567,10 @@
         <v>506919.0084</v>
       </c>
       <c r="K44" s="1">
-        <v>527337.4629</v>
+        <v>527348.5963</v>
       </c>
       <c r="L44" s="1">
-        <v>13.9109</v>
+        <v>13.9112</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.5985</v>
@@ -16617,10 +16620,10 @@
         <v>538217.9562</v>
       </c>
       <c r="K45" s="1">
-        <v>537337.4629</v>
+        <v>537348.5963</v>
       </c>
       <c r="L45" s="1">
-        <v>13.9016</v>
+        <v>13.9019</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.6955</v>
@@ -16670,10 +16673,10 @@
         <v>552033.1473</v>
       </c>
       <c r="K46" s="1">
-        <v>560984.3929</v>
+        <v>560995.5264</v>
       </c>
       <c r="L46" s="1">
-        <v>13.8897</v>
+        <v>13.89</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.3398</v>
@@ -16723,10 +16726,10 @@
         <v>547396.6285</v>
       </c>
       <c r="K47" s="1">
-        <v>570984.3929</v>
+        <v>570995.5264</v>
       </c>
       <c r="L47" s="1">
-        <v>13.8868</v>
+        <v>13.887</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.8469</v>
@@ -16776,10 +16779,10 @@
         <v>547864.7744</v>
       </c>
       <c r="K48" s="1">
-        <v>580984.3929</v>
+        <v>580995.5264</v>
       </c>
       <c r="L48" s="1">
-        <v>13.8775</v>
+        <v>13.8777</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.129</v>
@@ -16829,10 +16832,10 @@
         <v>570027.0464</v>
       </c>
       <c r="K49" s="1">
-        <v>602086.0214</v>
+        <v>602097.1548</v>
       </c>
       <c r="L49" s="1">
-        <v>13.8396</v>
+        <v>13.8399</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.716</v>
@@ -16882,10 +16885,10 @@
         <v>561745.5804</v>
       </c>
       <c r="K50" s="1">
-        <v>612086.0214</v>
+        <v>612097.1548</v>
       </c>
       <c r="L50" s="1">
-        <v>13.8279</v>
+        <v>13.8281</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.4613</v>
@@ -16935,10 +16938,10 @@
         <v>572205.5089</v>
       </c>
       <c r="K51" s="1">
-        <v>622086.0214</v>
+        <v>622097.1548</v>
       </c>
       <c r="L51" s="1">
-        <v>13.8089</v>
+        <v>13.8092</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.6545</v>
@@ -16988,10 +16991,10 @@
         <v>591142.2838</v>
       </c>
       <c r="K52" s="1">
-        <v>644037.4899</v>
+        <v>644048.6233</v>
       </c>
       <c r="L52" s="1">
-        <v>13.7593</v>
+        <v>13.7595</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.2345</v>
@@ -17041,10 +17044,10 @@
         <v>581149.9599</v>
       </c>
       <c r="K53" s="1">
-        <v>654037.4899</v>
+        <v>654048.6233</v>
       </c>
       <c r="L53" s="1">
-        <v>13.7414</v>
+        <v>13.7416</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.1636</v>
@@ -17094,10 +17097,10 @@
         <v>600538.2459</v>
       </c>
       <c r="K54" s="1">
-        <v>664037.4899</v>
+        <v>664048.6233</v>
       </c>
       <c r="L54" s="1">
-        <v>13.7164</v>
+        <v>13.7166</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.8145</v>
@@ -17147,10 +17150,10 @@
         <v>592927.0072</v>
       </c>
       <c r="K55" s="1">
-        <v>686888.4718000001</v>
+        <v>686899.6053000001</v>
       </c>
       <c r="L55" s="1">
-        <v>13.6594</v>
+        <v>13.6596</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.2352</v>
@@ -17200,10 +17203,10 @@
         <v>573322.7867000001</v>
       </c>
       <c r="K56" s="1">
-        <v>696888.4718000001</v>
+        <v>696899.6053000001</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6293</v>
+        <v>13.6295</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.8241</v>
@@ -17253,10 +17256,10 @@
         <v>575744.5952</v>
       </c>
       <c r="K57" s="1">
-        <v>706888.4718000001</v>
+        <v>706899.6053000001</v>
       </c>
       <c r="L57" s="1">
-        <v>13.5888</v>
+        <v>13.589</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2543</v>
@@ -17306,10 +17309,10 @@
         <v>608929.1468</v>
       </c>
       <c r="K58" s="1">
-        <v>730693.9917</v>
+        <v>730705.1250999999</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4778</v>
+        <v>13.478</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.5675</v>
@@ -17359,10 +17362,10 @@
         <v>581122.5777</v>
       </c>
       <c r="K59" s="1">
-        <v>740693.9917</v>
+        <v>740705.1250999999</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4424</v>
+        <v>13.4426</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967000000000001</v>
@@ -17412,10 +17415,10 @@
         <v>572371.7211</v>
       </c>
       <c r="K60" s="1">
-        <v>750693.9917</v>
+        <v>750705.1250999999</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3943</v>
+        <v>13.3945</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0064</v>
@@ -17465,10 +17468,10 @@
         <v>584572.831</v>
       </c>
       <c r="K61" s="1">
-        <v>775571.3997</v>
+        <v>775582.5331</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2493</v>
+        <v>13.2495</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0129</v>
@@ -17518,10 +17521,10 @@
         <v>594919.8096</v>
       </c>
       <c r="K62" s="1">
-        <v>785571.3997</v>
+        <v>785582.5331</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1953</v>
+        <v>13.1955</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>12.9559</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6438</v>
+        <v>12.6475</v>
       </c>
       <c r="E3" s="1">
-        <v>12.9515</v>
+        <v>12.9536</v>
       </c>
       <c r="F3" s="1">
-        <v>13.1045</v>
+        <v>13.1052</v>
       </c>
       <c r="G3" s="1">
-        <v>13.1953</v>
+        <v>13.1955</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>201656.7807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.7713</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.7901</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.7714</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.7625</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.7573</v>
       </c>
     </row>
   </sheetData>
